--- a/docs/general/project/499_GanttChart.xlsx
+++ b/docs/general/project/499_GanttChart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6DE778-5F1D-4C09-9C22-7F30B7EA76D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4430359-34AF-4144-9959-5A9626A03A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -181,19 +181,34 @@
     <t>Convert Gentle to Ts</t>
   </si>
   <si>
-    <t>Design UI</t>
-  </si>
-  <si>
-    <t>Jake, Harshal</t>
-  </si>
-  <si>
-    <t>Phoneme to Video Sys</t>
+    <t>UI Drafting/Planning</t>
+  </si>
+  <si>
+    <t>Demo UI Integration</t>
+  </si>
+  <si>
+    <t>Video System Demo - Main</t>
+  </si>
+  <si>
+    <t>Video System Integration - Main</t>
   </si>
   <si>
     <t>Prep for Test</t>
   </si>
   <si>
+    <t>Report - System Description</t>
+  </si>
+  <si>
     <t>Sample phase title block</t>
+  </si>
+  <si>
+    <t>Report - User Groups &amp; Tasks</t>
+  </si>
+  <si>
+    <t>Report- Issues Discovered</t>
+  </si>
+  <si>
+    <t>Report - Bar Graph of Scores</t>
   </si>
   <si>
     <t>Peer Testing 2</t>
@@ -1392,17 +1407,17 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="101" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
@@ -1457,11 +1472,11 @@
       </c>
       <c r="D4" s="84"/>
       <c r="E4" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I4" s="80">
         <f>I5</f>
-        <v>44830</v>
+        <v>44858</v>
       </c>
       <c r="J4" s="81"/>
       <c r="K4" s="81"/>
@@ -1471,7 +1486,7 @@
       <c r="O4" s="82"/>
       <c r="P4" s="80">
         <f>P5</f>
-        <v>44837</v>
+        <v>44865</v>
       </c>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -1481,7 +1496,7 @@
       <c r="V4" s="82"/>
       <c r="W4" s="80">
         <f>W5</f>
-        <v>44844</v>
+        <v>44872</v>
       </c>
       <c r="X4" s="81"/>
       <c r="Y4" s="81"/>
@@ -1491,7 +1506,7 @@
       <c r="AC4" s="82"/>
       <c r="AD4" s="80">
         <f>AD5</f>
-        <v>44851</v>
+        <v>44879</v>
       </c>
       <c r="AE4" s="81"/>
       <c r="AF4" s="81"/>
@@ -1501,7 +1516,7 @@
       <c r="AJ4" s="82"/>
       <c r="AK4" s="80">
         <f>AK5</f>
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="AL4" s="81"/>
       <c r="AM4" s="81"/>
@@ -1511,7 +1526,7 @@
       <c r="AQ4" s="82"/>
       <c r="AR4" s="80">
         <f>AR5</f>
-        <v>44865</v>
+        <v>44893</v>
       </c>
       <c r="AS4" s="81"/>
       <c r="AT4" s="81"/>
@@ -1521,7 +1536,7 @@
       <c r="AX4" s="82"/>
       <c r="AY4" s="80">
         <f>AY5</f>
-        <v>44872</v>
+        <v>44900</v>
       </c>
       <c r="AZ4" s="81"/>
       <c r="BA4" s="81"/>
@@ -1531,7 +1546,7 @@
       <c r="BE4" s="82"/>
       <c r="BF4" s="80">
         <f>BF5</f>
-        <v>44879</v>
+        <v>44907</v>
       </c>
       <c r="BG4" s="81"/>
       <c r="BH4" s="81"/>
@@ -1552,227 +1567,227 @@
       <c r="G5" s="74"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44830</v>
+        <v>44858</v>
       </c>
       <c r="J5" s="10">
         <f>I5+1</f>
-        <v>44831</v>
+        <v>44859</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44832</v>
+        <v>44860</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="0"/>
-        <v>44833</v>
+        <v>44861</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>44834</v>
+        <v>44862</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="0"/>
-        <v>44835</v>
+        <v>44863</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>44836</v>
+        <v>44864</v>
       </c>
       <c r="P5" s="11">
         <f>O5+1</f>
-        <v>44837</v>
+        <v>44865</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>44838</v>
+        <v>44866</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="0"/>
-        <v>44839</v>
+        <v>44867</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>44868</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>44841</v>
+        <v>44869</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>44842</v>
+        <v>44870</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="0"/>
-        <v>44843</v>
+        <v>44871</v>
       </c>
       <c r="W5" s="11">
         <f>V5+1</f>
-        <v>44844</v>
+        <v>44872</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>44845</v>
+        <v>44873</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>44846</v>
+        <v>44874</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>44847</v>
+        <v>44875</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>44848</v>
+        <v>44876</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="0"/>
-        <v>44849</v>
+        <v>44877</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="0"/>
-        <v>44850</v>
+        <v>44878</v>
       </c>
       <c r="AD5" s="11">
         <f>AC5+1</f>
-        <v>44851</v>
+        <v>44879</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>44852</v>
+        <v>44880</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" si="0"/>
-        <v>44853</v>
+        <v>44881</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="0"/>
-        <v>44854</v>
+        <v>44882</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="0"/>
-        <v>44855</v>
+        <v>44883</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="0"/>
-        <v>44856</v>
+        <v>44884</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="0"/>
-        <v>44857</v>
+        <v>44885</v>
       </c>
       <c r="AK5" s="11">
         <f>AJ5+1</f>
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>44859</v>
+        <v>44887</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" si="0"/>
-        <v>44860</v>
+        <v>44888</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" si="0"/>
-        <v>44861</v>
+        <v>44889</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" si="0"/>
-        <v>44862</v>
+        <v>44890</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" si="0"/>
-        <v>44863</v>
+        <v>44891</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" si="0"/>
-        <v>44864</v>
+        <v>44892</v>
       </c>
       <c r="AR5" s="11">
         <f>AQ5+1</f>
-        <v>44865</v>
+        <v>44893</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>44866</v>
+        <v>44894</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" si="0"/>
-        <v>44867</v>
+        <v>44895</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" si="0"/>
-        <v>44868</v>
+        <v>44896</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" si="0"/>
-        <v>44869</v>
+        <v>44897</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" si="0"/>
-        <v>44870</v>
+        <v>44898</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" si="0"/>
-        <v>44871</v>
+        <v>44899</v>
       </c>
       <c r="AY5" s="11">
         <f>AX5+1</f>
-        <v>44872</v>
+        <v>44900</v>
       </c>
       <c r="AZ5" s="10">
         <f>AY5+1</f>
-        <v>44873</v>
+        <v>44901</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44874</v>
+        <v>44902</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" si="1"/>
-        <v>44875</v>
+        <v>44903</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" si="1"/>
-        <v>44876</v>
+        <v>44904</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" si="1"/>
-        <v>44877</v>
+        <v>44905</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" si="1"/>
-        <v>44878</v>
+        <v>44906</v>
       </c>
       <c r="BF5" s="11">
         <f>BE5+1</f>
-        <v>44879</v>
+        <v>44907</v>
       </c>
       <c r="BG5" s="10">
         <f>BF5+1</f>
-        <v>44880</v>
+        <v>44908</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44881</v>
+        <v>44909</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" si="2"/>
-        <v>44882</v>
+        <v>44910</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" si="2"/>
-        <v>44883</v>
+        <v>44911</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" si="2"/>
-        <v>44884</v>
+        <v>44912</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" si="2"/>
-        <v>44885</v>
+        <v>44913</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
@@ -2103,7 +2118,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H35" ca="1" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H37" ca="1" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2738,13 +2753,13 @@
         <v>44856</v>
       </c>
       <c r="F16" s="56">
-        <f>E16+20</f>
-        <v>44876</v>
+        <f>E16+36</f>
+        <v>44892</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -2812,7 +2827,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="27">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="E17" s="56">
         <f>E16</f>
@@ -2820,12 +2835,12 @@
       </c>
       <c r="F17" s="56">
         <f>F16</f>
-        <v>44876</v>
+        <v>44892</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -2890,22 +2905,22 @@
         <v>35</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D18" s="27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="56">
-        <v>44873</v>
+        <v>44883</v>
       </c>
       <c r="F18" s="56">
-        <f>E18+3</f>
-        <v>44876</v>
+        <f>E18+6</f>
+        <v>44889</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -2964,30 +2979,27 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D19" s="27">
         <v>0</v>
       </c>
       <c r="E19" s="56">
         <f>F18</f>
-        <v>44876</v>
+        <v>44889</v>
       </c>
       <c r="F19" s="56">
-        <f>E19+7</f>
-        <v>44883</v>
+        <f>E19+4</f>
+        <v>44893</v>
       </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
+      <c r="H19" s="17"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
@@ -3004,7 +3016,7 @@
       <c r="V19" s="44"/>
       <c r="W19" s="44"/>
       <c r="X19" s="44"/>
-      <c r="Y19" s="45"/>
+      <c r="Y19" s="44"/>
       <c r="Z19" s="44"/>
       <c r="AA19" s="44"/>
       <c r="AB19" s="44"/>
@@ -3045,26 +3057,30 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="48"/>
       <c r="B20" s="70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="27">
         <v>0</v>
       </c>
       <c r="E20" s="56">
-        <v>44883</v>
+        <f>F18</f>
+        <v>44889</v>
       </c>
       <c r="F20" s="56">
-        <f>E20+7</f>
-        <v>44890</v>
+        <f>E20+2</f>
+        <v>44891</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
@@ -3122,30 +3138,27 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="70" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="27">
         <v>0</v>
       </c>
       <c r="E21" s="56">
         <f>F20</f>
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="F21" s="56">
-        <f>E21+7</f>
-        <v>44897</v>
+        <f>E21+4</f>
+        <v>44895</v>
       </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
+      <c r="H21" s="17"/>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
@@ -3162,7 +3175,7 @@
       <c r="V21" s="44"/>
       <c r="W21" s="44"/>
       <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
+      <c r="Y21" s="45"/>
       <c r="Z21" s="44"/>
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
@@ -3203,22 +3216,26 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="48"/>
+      <c r="B22" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
+      <c r="C22" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22" s="56">
+        <v>44891</v>
+      </c>
+      <c r="F22" s="56">
+        <f>E22+4</f>
+        <v>44895</v>
+      </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
+      <c r="H22" s="17"/>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
@@ -3235,7 +3252,7 @@
       <c r="V22" s="44"/>
       <c r="W22" s="44"/>
       <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
+      <c r="Y22" s="45"/>
       <c r="Z22" s="44"/>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
@@ -3278,17 +3295,27 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="48"/>
-      <c r="B23" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+      <c r="B23" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0</v>
+      </c>
+      <c r="E23" s="56">
+        <f>F22</f>
+        <v>44895</v>
+      </c>
+      <c r="F23" s="56">
+        <f>E23+7</f>
+        <v>44902</v>
+      </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="17" t="str">
+      <c r="H23" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3348,18 +3375,30 @@
       <c r="BL23" s="44"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="71" t="s">
+      <c r="A24" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
+      <c r="C24" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0</v>
+      </c>
+      <c r="E24" s="56">
+        <f>F22</f>
+        <v>44895</v>
+      </c>
+      <c r="F24" s="56">
+        <f>E24+7</f>
+        <v>44902</v>
+      </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="17" t="str">
+      <c r="H24" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3420,17 +3459,27 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="48"/>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
+      <c r="C25" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0</v>
+      </c>
+      <c r="E25" s="56">
+        <f>F22</f>
+        <v>44895</v>
+      </c>
+      <c r="F25" s="56">
+        <f>E25+7</f>
+        <v>44902</v>
+      </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="17" t="str">
+      <c r="H25" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -3491,17 +3540,27 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="48"/>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="C26" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0</v>
+      </c>
+      <c r="E26" s="56">
+        <f>F22</f>
+        <v>44895</v>
+      </c>
+      <c r="F26" s="56">
+        <f>E26+7</f>
+        <v>44902</v>
+      </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17" t="str">
+      <c r="H26" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
@@ -3562,13 +3621,13 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="48"/>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3632,16 +3691,14 @@
       <c r="BL27" s="44"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="33" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3706,21 +3763,17 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="48"/>
-      <c r="B29" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="58" t="s">
+      <c r="B29" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="58" t="s">
-        <v>47</v>
-      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="e">
+      <c r="H29" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -3780,22 +3833,20 @@
       <c r="BL29" s="44"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>47</v>
-      </c>
+      <c r="A30" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="e">
+      <c r="H30" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
@@ -3856,21 +3907,17 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="48"/>
-      <c r="B31" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>47</v>
-      </c>
+      <c r="B31" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="65"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="e">
+      <c r="H31" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
@@ -3931,21 +3978,17 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="48"/>
-      <c r="B32" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>47</v>
-      </c>
+      <c r="B32" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="65"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="17" t="e">
+      <c r="H32" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
@@ -4006,21 +4049,17 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="48"/>
-      <c r="B33" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>47</v>
-      </c>
+      <c r="B33" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="17" t="e">
+      <c r="H33" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
@@ -4080,18 +4119,22 @@
       <c r="BL33" s="44"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A34" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="67"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>52</v>
+      </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="17" t="str">
+      <c r="H34" s="17" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
@@ -4151,103 +4194,286 @@
       <c r="BL34" s="44"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="67"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="44"/>
+      <c r="BA35" s="44"/>
+      <c r="BB35" s="44"/>
+      <c r="BC35" s="44"/>
+      <c r="BD35" s="44"/>
+      <c r="BE35" s="44"/>
+      <c r="BF35" s="44"/>
+      <c r="BG35" s="44"/>
+      <c r="BH35" s="44"/>
+      <c r="BI35" s="44"/>
+      <c r="BJ35" s="44"/>
+      <c r="BK35" s="44"/>
+      <c r="BL35" s="44"/>
+    </row>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A36" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="67"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
+      <c r="BB36" s="44"/>
+      <c r="BC36" s="44"/>
+      <c r="BD36" s="44"/>
+      <c r="BE36" s="44"/>
+      <c r="BF36" s="44"/>
+      <c r="BG36" s="44"/>
+      <c r="BH36" s="44"/>
+      <c r="BI36" s="44"/>
+      <c r="BJ36" s="44"/>
+      <c r="BK36" s="44"/>
+      <c r="BL36" s="44"/>
+    </row>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A37" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43" t="str">
+      <c r="C37" s="67"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="46"/>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="46"/>
-      <c r="AL35" s="46"/>
-      <c r="AM35" s="46"/>
-      <c r="AN35" s="46"/>
-      <c r="AO35" s="46"/>
-      <c r="AP35" s="46"/>
-      <c r="AQ35" s="46"/>
-      <c r="AR35" s="46"/>
-      <c r="AS35" s="46"/>
-      <c r="AT35" s="46"/>
-      <c r="AU35" s="46"/>
-      <c r="AV35" s="46"/>
-      <c r="AW35" s="46"/>
-      <c r="AX35" s="46"/>
-      <c r="AY35" s="46"/>
-      <c r="AZ35" s="46"/>
-      <c r="BA35" s="46"/>
-      <c r="BB35" s="46"/>
-      <c r="BC35" s="46"/>
-      <c r="BD35" s="46"/>
-      <c r="BE35" s="46"/>
-      <c r="BF35" s="46"/>
-      <c r="BG35" s="46"/>
-      <c r="BH35" s="46"/>
-      <c r="BI35" s="46"/>
-      <c r="BJ35" s="46"/>
-      <c r="BK35" s="46"/>
-      <c r="BL35" s="46"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1">
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1">
-      <c r="C37" s="14"/>
-      <c r="F37" s="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="46"/>
+      <c r="AO37" s="46"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
+      <c r="AR37" s="46"/>
+      <c r="AS37" s="46"/>
+      <c r="AT37" s="46"/>
+      <c r="AU37" s="46"/>
+      <c r="AV37" s="46"/>
+      <c r="AW37" s="46"/>
+      <c r="AX37" s="46"/>
+      <c r="AY37" s="46"/>
+      <c r="AZ37" s="46"/>
+      <c r="BA37" s="46"/>
+      <c r="BB37" s="46"/>
+      <c r="BC37" s="46"/>
+      <c r="BD37" s="46"/>
+      <c r="BE37" s="46"/>
+      <c r="BF37" s="46"/>
+      <c r="BG37" s="46"/>
+      <c r="BH37" s="46"/>
+      <c r="BI37" s="46"/>
+      <c r="BJ37" s="46"/>
+      <c r="BK37" s="46"/>
+      <c r="BL37" s="46"/>
     </row>
     <row r="38" spans="1:64" ht="30" customHeight="1">
-      <c r="C38" s="15"/>
+      <c r="B38" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="67"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1">
+      <c r="B39" s="73"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1">
+      <c r="B40" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1">
+      <c r="C42" s="14"/>
+      <c r="F42" s="50"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1">
+      <c r="C43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D35">
+  <conditionalFormatting sqref="D7:D40">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4261,12 +4487,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL35">
+  <conditionalFormatting sqref="I5:BL37">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL35">
+  <conditionalFormatting sqref="I7:BL37">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4301,7 +4527,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/general/project/499_GanttChart.xlsx
+++ b/docs/general/project/499_GanttChart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25930"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4430359-34AF-4144-9959-5A9626A03A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39E5ED6A-8A93-4039-ADDB-C48479336AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -205,7 +205,10 @@
     <t>Report - User Groups &amp; Tasks</t>
   </si>
   <si>
-    <t>Report- Issues Discovered</t>
+    <t>Report - Participant Information</t>
+  </si>
+  <si>
+    <t>Report - Issues Discovered</t>
   </si>
   <si>
     <t>Report - Bar Graph of Scores</t>
@@ -1407,11 +1410,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL43"/>
+  <dimension ref="A1:BL44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="101" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1472,11 +1475,11 @@
       </c>
       <c r="D4" s="84"/>
       <c r="E4" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I4" s="80">
         <f>I5</f>
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="J4" s="81"/>
       <c r="K4" s="81"/>
@@ -1486,7 +1489,7 @@
       <c r="O4" s="82"/>
       <c r="P4" s="80">
         <f>P5</f>
-        <v>44865</v>
+        <v>44907</v>
       </c>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -1496,7 +1499,7 @@
       <c r="V4" s="82"/>
       <c r="W4" s="80">
         <f>W5</f>
-        <v>44872</v>
+        <v>44914</v>
       </c>
       <c r="X4" s="81"/>
       <c r="Y4" s="81"/>
@@ -1506,7 +1509,7 @@
       <c r="AC4" s="82"/>
       <c r="AD4" s="80">
         <f>AD5</f>
-        <v>44879</v>
+        <v>44921</v>
       </c>
       <c r="AE4" s="81"/>
       <c r="AF4" s="81"/>
@@ -1516,7 +1519,7 @@
       <c r="AJ4" s="82"/>
       <c r="AK4" s="80">
         <f>AK5</f>
-        <v>44886</v>
+        <v>44928</v>
       </c>
       <c r="AL4" s="81"/>
       <c r="AM4" s="81"/>
@@ -1526,7 +1529,7 @@
       <c r="AQ4" s="82"/>
       <c r="AR4" s="80">
         <f>AR5</f>
-        <v>44893</v>
+        <v>44935</v>
       </c>
       <c r="AS4" s="81"/>
       <c r="AT4" s="81"/>
@@ -1536,7 +1539,7 @@
       <c r="AX4" s="82"/>
       <c r="AY4" s="80">
         <f>AY5</f>
-        <v>44900</v>
+        <v>44942</v>
       </c>
       <c r="AZ4" s="81"/>
       <c r="BA4" s="81"/>
@@ -1546,7 +1549,7 @@
       <c r="BE4" s="82"/>
       <c r="BF4" s="80">
         <f>BF5</f>
-        <v>44907</v>
+        <v>44949</v>
       </c>
       <c r="BG4" s="81"/>
       <c r="BH4" s="81"/>
@@ -1567,227 +1570,227 @@
       <c r="G5" s="74"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="J5" s="10">
         <f>I5+1</f>
-        <v>44859</v>
+        <v>44901</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44860</v>
+        <v>44902</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="0"/>
-        <v>44861</v>
+        <v>44903</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>44862</v>
+        <v>44904</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="0"/>
-        <v>44863</v>
+        <v>44905</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>44864</v>
+        <v>44906</v>
       </c>
       <c r="P5" s="11">
         <f>O5+1</f>
-        <v>44865</v>
+        <v>44907</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>44866</v>
+        <v>44908</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="0"/>
-        <v>44867</v>
+        <v>44909</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
-        <v>44868</v>
+        <v>44910</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>44869</v>
+        <v>44911</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>44870</v>
+        <v>44912</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="0"/>
-        <v>44871</v>
+        <v>44913</v>
       </c>
       <c r="W5" s="11">
         <f>V5+1</f>
-        <v>44872</v>
+        <v>44914</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>44873</v>
+        <v>44915</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>44874</v>
+        <v>44916</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>44875</v>
+        <v>44917</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>44876</v>
+        <v>44918</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="0"/>
-        <v>44877</v>
+        <v>44919</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="0"/>
-        <v>44878</v>
+        <v>44920</v>
       </c>
       <c r="AD5" s="11">
         <f>AC5+1</f>
-        <v>44879</v>
+        <v>44921</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>44880</v>
+        <v>44922</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" si="0"/>
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="0"/>
-        <v>44882</v>
+        <v>44924</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="0"/>
-        <v>44883</v>
+        <v>44925</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="0"/>
-        <v>44884</v>
+        <v>44926</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="0"/>
-        <v>44885</v>
+        <v>44927</v>
       </c>
       <c r="AK5" s="11">
         <f>AJ5+1</f>
-        <v>44886</v>
+        <v>44928</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>44887</v>
+        <v>44929</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" si="0"/>
-        <v>44888</v>
+        <v>44930</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" si="0"/>
-        <v>44889</v>
+        <v>44931</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" si="0"/>
-        <v>44890</v>
+        <v>44932</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" si="0"/>
-        <v>44891</v>
+        <v>44933</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" si="0"/>
-        <v>44892</v>
+        <v>44934</v>
       </c>
       <c r="AR5" s="11">
         <f>AQ5+1</f>
-        <v>44893</v>
+        <v>44935</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>44894</v>
+        <v>44936</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" si="0"/>
-        <v>44895</v>
+        <v>44937</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" si="0"/>
-        <v>44896</v>
+        <v>44938</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" si="0"/>
-        <v>44897</v>
+        <v>44939</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" si="0"/>
-        <v>44898</v>
+        <v>44940</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" si="0"/>
-        <v>44899</v>
+        <v>44941</v>
       </c>
       <c r="AY5" s="11">
         <f>AX5+1</f>
-        <v>44900</v>
+        <v>44942</v>
       </c>
       <c r="AZ5" s="10">
         <f>AY5+1</f>
-        <v>44901</v>
+        <v>44943</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44902</v>
+        <v>44944</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" si="1"/>
-        <v>44903</v>
+        <v>44945</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" si="1"/>
-        <v>44904</v>
+        <v>44946</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" si="1"/>
-        <v>44905</v>
+        <v>44947</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" si="1"/>
-        <v>44906</v>
+        <v>44948</v>
       </c>
       <c r="BF5" s="11">
         <f>BE5+1</f>
-        <v>44907</v>
+        <v>44949</v>
       </c>
       <c r="BG5" s="10">
         <f>BF5+1</f>
-        <v>44908</v>
+        <v>44950</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44909</v>
+        <v>44951</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" si="2"/>
-        <v>44910</v>
+        <v>44952</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" si="2"/>
-        <v>44911</v>
+        <v>44953</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" si="2"/>
-        <v>44912</v>
+        <v>44954</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" si="2"/>
-        <v>44913</v>
+        <v>44955</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
@@ -2118,7 +2121,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H37" ca="1" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H38" ca="1" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2753,13 +2756,13 @@
         <v>44856</v>
       </c>
       <c r="F16" s="56">
-        <f>E16+36</f>
-        <v>44892</v>
+        <f>E16+72</f>
+        <v>44928</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -2827,7 +2830,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="27">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="56">
         <f>E16</f>
@@ -2835,12 +2838,12 @@
       </c>
       <c r="F17" s="56">
         <f>F16</f>
-        <v>44892</v>
+        <v>44928</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -2908,7 +2911,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="56">
         <v>44883</v>
@@ -2988,7 +2991,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="56">
         <f>F18</f>
@@ -3066,7 +3069,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="56">
         <f>F18</f>
@@ -3225,7 +3228,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="56">
         <v>44891</v>
@@ -3302,20 +3305,20 @@
         <v>25</v>
       </c>
       <c r="D23" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="56">
         <f>F22</f>
         <v>44895</v>
       </c>
       <c r="F23" s="56">
-        <f>E23+7</f>
-        <v>44902</v>
+        <f>E23+9</f>
+        <v>44904</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3392,13 +3395,13 @@
         <v>44895</v>
       </c>
       <c r="F24" s="56">
-        <f>E24+7</f>
-        <v>44902</v>
+        <f t="shared" ref="F24:F27" si="7">E24+9</f>
+        <v>44904</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3457,30 +3460,27 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="70" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D25" s="27">
         <v>0</v>
       </c>
       <c r="E25" s="56">
-        <f>F22</f>
+        <f>F21</f>
         <v>44895</v>
       </c>
       <c r="F25" s="56">
-        <f>E25+7</f>
-        <v>44902</v>
+        <f t="shared" si="7"/>
+        <v>44904</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
+      <c r="H25" s="17"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
@@ -3544,7 +3544,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D26" s="27">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>44895</v>
       </c>
       <c r="F26" s="56">
-        <f>E26+7</f>
-        <v>44902</v>
+        <f t="shared" si="7"/>
+        <v>44904</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
@@ -3621,17 +3621,27 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="48"/>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="C27" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="56">
+        <f>F22</f>
+        <v>44895</v>
+      </c>
+      <c r="F27" s="56">
+        <f t="shared" si="7"/>
+        <v>44904</v>
+      </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="str">
+      <c r="H27" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -3692,13 +3702,13 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="48"/>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3833,9 +3843,7 @@
       <c r="BL29" s="44"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A30" s="48" t="s">
-        <v>41</v>
-      </c>
+      <c r="A30" s="48"/>
       <c r="B30" s="71" t="s">
         <v>48</v>
       </c>
@@ -3906,7 +3914,9 @@
       <c r="BL30" s="44"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="B31" s="71" t="s">
         <v>49</v>
       </c>
@@ -4049,13 +4059,13 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="48"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4120,21 +4130,17 @@
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="48"/>
-      <c r="B34" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="58" t="s">
+      <c r="B34" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="58" t="s">
-        <v>52</v>
-      </c>
+      <c r="C34" s="66"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="17" t="e">
+      <c r="H34" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
@@ -4201,10 +4207,10 @@
       <c r="C35" s="67"/>
       <c r="D35" s="37"/>
       <c r="E35" s="58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F35" s="58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="e">
@@ -4269,19 +4275,17 @@
       <c r="BL35" s="44"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A36" s="48" t="s">
-        <v>53</v>
-      </c>
+      <c r="A36" s="48"/>
       <c r="B36" s="72" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="67"/>
       <c r="D36" s="37"/>
       <c r="E36" s="58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F36" s="58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="e">
@@ -4346,7 +4350,7 @@
       <c r="BL36" s="44"/>
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="72" t="s">
@@ -4355,109 +4359,186 @@
       <c r="C37" s="67"/>
       <c r="D37" s="37"/>
       <c r="E37" s="58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43" t="e">
+        <v>53</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="46"/>
-      <c r="AE37" s="46"/>
-      <c r="AF37" s="46"/>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
-      <c r="AM37" s="46"/>
-      <c r="AN37" s="46"/>
-      <c r="AO37" s="46"/>
-      <c r="AP37" s="46"/>
-      <c r="AQ37" s="46"/>
-      <c r="AR37" s="46"/>
-      <c r="AS37" s="46"/>
-      <c r="AT37" s="46"/>
-      <c r="AU37" s="46"/>
-      <c r="AV37" s="46"/>
-      <c r="AW37" s="46"/>
-      <c r="AX37" s="46"/>
-      <c r="AY37" s="46"/>
-      <c r="AZ37" s="46"/>
-      <c r="BA37" s="46"/>
-      <c r="BB37" s="46"/>
-      <c r="BC37" s="46"/>
-      <c r="BD37" s="46"/>
-      <c r="BE37" s="46"/>
-      <c r="BF37" s="46"/>
-      <c r="BG37" s="46"/>
-      <c r="BH37" s="46"/>
-      <c r="BI37" s="46"/>
-      <c r="BJ37" s="46"/>
-      <c r="BK37" s="46"/>
-      <c r="BL37" s="46"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="44"/>
+      <c r="AP37" s="44"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="44"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44"/>
+      <c r="AU37" s="44"/>
+      <c r="AV37" s="44"/>
+      <c r="AW37" s="44"/>
+      <c r="AX37" s="44"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="44"/>
+      <c r="BA37" s="44"/>
+      <c r="BB37" s="44"/>
+      <c r="BC37" s="44"/>
+      <c r="BD37" s="44"/>
+      <c r="BE37" s="44"/>
+      <c r="BF37" s="44"/>
+      <c r="BG37" s="44"/>
+      <c r="BH37" s="44"/>
+      <c r="BI37" s="44"/>
+      <c r="BJ37" s="44"/>
+      <c r="BK37" s="44"/>
+      <c r="BL37" s="44"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A38" s="49" t="s">
+        <v>55</v>
+      </c>
       <c r="B38" s="72" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="67"/>
       <c r="D38" s="37"/>
       <c r="E38" s="58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F38" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46"/>
+      <c r="AH38" s="46"/>
+      <c r="AI38" s="46"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="46"/>
+      <c r="AL38" s="46"/>
+      <c r="AM38" s="46"/>
+      <c r="AN38" s="46"/>
+      <c r="AO38" s="46"/>
+      <c r="AP38" s="46"/>
+      <c r="AQ38" s="46"/>
+      <c r="AR38" s="46"/>
+      <c r="AS38" s="46"/>
+      <c r="AT38" s="46"/>
+      <c r="AU38" s="46"/>
+      <c r="AV38" s="46"/>
+      <c r="AW38" s="46"/>
+      <c r="AX38" s="46"/>
+      <c r="AY38" s="46"/>
+      <c r="AZ38" s="46"/>
+      <c r="BA38" s="46"/>
+      <c r="BB38" s="46"/>
+      <c r="BC38" s="46"/>
+      <c r="BD38" s="46"/>
+      <c r="BE38" s="46"/>
+      <c r="BF38" s="46"/>
+      <c r="BG38" s="46"/>
+      <c r="BH38" s="46"/>
+      <c r="BI38" s="46"/>
+      <c r="BJ38" s="46"/>
+      <c r="BK38" s="46"/>
+      <c r="BL38" s="46"/>
     </row>
     <row r="39" spans="1:64" ht="30" customHeight="1">
-      <c r="B39" s="73"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
+      <c r="B39" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1">
-      <c r="B40" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1">
-      <c r="C42" s="14"/>
-      <c r="F42" s="50"/>
+    <row r="41" spans="1:64" ht="30" customHeight="1">
+      <c r="B41" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1">
-      <c r="C43" s="15"/>
+      <c r="C43" s="14"/>
+      <c r="F43" s="50"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1">
+      <c r="C44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4473,7 +4554,7 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D40">
+  <conditionalFormatting sqref="D7:D41">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4487,12 +4568,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL37">
+  <conditionalFormatting sqref="I5:BL38">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL37">
+  <conditionalFormatting sqref="I7:BL38">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4527,7 +4608,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D40</xm:sqref>
+          <xm:sqref>D7:D41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/general/project/499_GanttChart.xlsx
+++ b/docs/general/project/499_GanttChart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39E5ED6A-8A93-4039-ADDB-C48479336AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="8_{06185DA2-61DB-490F-98E9-0FBF75419AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{452BD5B4-83EC-4F8E-9865-7AE5399D8096}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -217,32 +217,68 @@
     <t>Peer Testing 2</t>
   </si>
   <si>
+    <t>Video System Improvements 1</t>
+  </si>
+  <si>
+    <t>Manual - Audio System Fixes</t>
+  </si>
+  <si>
+    <t>External API Research</t>
+  </si>
+  <si>
+    <t>External API Integration</t>
+  </si>
+  <si>
+    <t>Video System Improvements 2</t>
+  </si>
+  <si>
+    <t>Video System Documentation</t>
+  </si>
+  <si>
+    <t>Multi-Language Research</t>
+  </si>
+  <si>
+    <t>Manual - Video System Integration</t>
+  </si>
+  <si>
+    <t>Multi-Language Algorithm</t>
+  </si>
+  <si>
+    <t>Multi-Language Server Integration</t>
+  </si>
+  <si>
+    <t>Manual - Multi-Language Integration</t>
+  </si>
+  <si>
+    <t>Multi-Language Documentation</t>
+  </si>
+  <si>
+    <t>Product Delivery</t>
+  </si>
+  <si>
     <t>Task 1</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>Task 2</t>
   </si>
   <si>
+    <t>This is an empty row</t>
+  </si>
+  <si>
     <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Product Delivery</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>This is an empty row</t>
   </si>
   <si>
     <t>This row marks the end of the Project Schedule. DO NOT enter anything in this row. 
 Insert new rows ABOVE this one to continue building out your Project Schedule.</t>
+  </si>
+  <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Task 5</t>
   </si>
   <si>
     <t>Insert new rows ABOVE this one</t>
@@ -1410,17 +1446,17 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL44"/>
+  <dimension ref="A1:BL52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="101" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
@@ -1475,11 +1511,11 @@
       </c>
       <c r="D4" s="84"/>
       <c r="E4" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I4" s="80">
         <f>I5</f>
-        <v>44900</v>
+        <v>44942</v>
       </c>
       <c r="J4" s="81"/>
       <c r="K4" s="81"/>
@@ -1489,7 +1525,7 @@
       <c r="O4" s="82"/>
       <c r="P4" s="80">
         <f>P5</f>
-        <v>44907</v>
+        <v>44949</v>
       </c>
       <c r="Q4" s="81"/>
       <c r="R4" s="81"/>
@@ -1499,7 +1535,7 @@
       <c r="V4" s="82"/>
       <c r="W4" s="80">
         <f>W5</f>
-        <v>44914</v>
+        <v>44956</v>
       </c>
       <c r="X4" s="81"/>
       <c r="Y4" s="81"/>
@@ -1509,7 +1545,7 @@
       <c r="AC4" s="82"/>
       <c r="AD4" s="80">
         <f>AD5</f>
-        <v>44921</v>
+        <v>44963</v>
       </c>
       <c r="AE4" s="81"/>
       <c r="AF4" s="81"/>
@@ -1519,7 +1555,7 @@
       <c r="AJ4" s="82"/>
       <c r="AK4" s="80">
         <f>AK5</f>
-        <v>44928</v>
+        <v>44970</v>
       </c>
       <c r="AL4" s="81"/>
       <c r="AM4" s="81"/>
@@ -1529,7 +1565,7 @@
       <c r="AQ4" s="82"/>
       <c r="AR4" s="80">
         <f>AR5</f>
-        <v>44935</v>
+        <v>44977</v>
       </c>
       <c r="AS4" s="81"/>
       <c r="AT4" s="81"/>
@@ -1539,7 +1575,7 @@
       <c r="AX4" s="82"/>
       <c r="AY4" s="80">
         <f>AY5</f>
-        <v>44942</v>
+        <v>44984</v>
       </c>
       <c r="AZ4" s="81"/>
       <c r="BA4" s="81"/>
@@ -1549,7 +1585,7 @@
       <c r="BE4" s="82"/>
       <c r="BF4" s="80">
         <f>BF5</f>
-        <v>44949</v>
+        <v>44991</v>
       </c>
       <c r="BG4" s="81"/>
       <c r="BH4" s="81"/>
@@ -1570,227 +1606,227 @@
       <c r="G5" s="74"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44900</v>
+        <v>44942</v>
       </c>
       <c r="J5" s="10">
         <f>I5+1</f>
-        <v>44901</v>
+        <v>44943</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44902</v>
+        <v>44944</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="0"/>
-        <v>44903</v>
+        <v>44945</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>44904</v>
+        <v>44946</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="0"/>
-        <v>44905</v>
+        <v>44947</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>44906</v>
+        <v>44948</v>
       </c>
       <c r="P5" s="11">
         <f>O5+1</f>
-        <v>44907</v>
+        <v>44949</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>44908</v>
+        <v>44950</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="0"/>
-        <v>44909</v>
+        <v>44951</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
-        <v>44910</v>
+        <v>44952</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>44911</v>
+        <v>44953</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>44912</v>
+        <v>44954</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="0"/>
-        <v>44913</v>
+        <v>44955</v>
       </c>
       <c r="W5" s="11">
         <f>V5+1</f>
-        <v>44914</v>
+        <v>44956</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>44915</v>
+        <v>44957</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>44916</v>
+        <v>44958</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>44917</v>
+        <v>44959</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>44918</v>
+        <v>44960</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="0"/>
-        <v>44919</v>
+        <v>44961</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="0"/>
-        <v>44920</v>
+        <v>44962</v>
       </c>
       <c r="AD5" s="11">
         <f>AC5+1</f>
-        <v>44921</v>
+        <v>44963</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>44922</v>
+        <v>44964</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" si="0"/>
-        <v>44923</v>
+        <v>44965</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="0"/>
-        <v>44924</v>
+        <v>44966</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="0"/>
-        <v>44925</v>
+        <v>44967</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="0"/>
-        <v>44926</v>
+        <v>44968</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="0"/>
-        <v>44927</v>
+        <v>44969</v>
       </c>
       <c r="AK5" s="11">
         <f>AJ5+1</f>
-        <v>44928</v>
+        <v>44970</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>44929</v>
+        <v>44971</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" si="0"/>
-        <v>44930</v>
+        <v>44972</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" si="0"/>
-        <v>44931</v>
+        <v>44973</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" si="0"/>
-        <v>44932</v>
+        <v>44974</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" si="0"/>
-        <v>44933</v>
+        <v>44975</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" si="0"/>
-        <v>44934</v>
+        <v>44976</v>
       </c>
       <c r="AR5" s="11">
         <f>AQ5+1</f>
-        <v>44935</v>
+        <v>44977</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>44936</v>
+        <v>44978</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" si="0"/>
-        <v>44937</v>
+        <v>44979</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" si="0"/>
-        <v>44938</v>
+        <v>44980</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" si="0"/>
-        <v>44939</v>
+        <v>44981</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" si="0"/>
-        <v>44940</v>
+        <v>44982</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" si="0"/>
-        <v>44941</v>
+        <v>44983</v>
       </c>
       <c r="AY5" s="11">
         <f>AX5+1</f>
-        <v>44942</v>
+        <v>44984</v>
       </c>
       <c r="AZ5" s="10">
         <f>AY5+1</f>
-        <v>44943</v>
+        <v>44985</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44944</v>
+        <v>44986</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" si="1"/>
-        <v>44945</v>
+        <v>44987</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" si="1"/>
-        <v>44946</v>
+        <v>44988</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" si="1"/>
-        <v>44947</v>
+        <v>44989</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" si="1"/>
-        <v>44948</v>
+        <v>44990</v>
       </c>
       <c r="BF5" s="11">
         <f>BE5+1</f>
-        <v>44949</v>
+        <v>44991</v>
       </c>
       <c r="BG5" s="10">
         <f>BF5+1</f>
-        <v>44950</v>
+        <v>44992</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44951</v>
+        <v>44993</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" si="2"/>
-        <v>44952</v>
+        <v>44994</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" si="2"/>
-        <v>44953</v>
+        <v>44995</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" si="2"/>
-        <v>44954</v>
+        <v>44996</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" si="2"/>
-        <v>44955</v>
+        <v>44997</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
@@ -2121,7 +2157,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H38" ca="1" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H46" ca="1" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2749,7 +2785,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="56">
         <f>F14+1</f>
@@ -2830,7 +2866,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="56">
         <f>E16</f>
@@ -3069,7 +3105,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="56">
         <f>F18</f>
@@ -3150,7 +3186,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="56">
         <f>F20</f>
@@ -3388,7 +3424,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="56">
         <f>F22</f>
@@ -3469,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="56">
         <f>F21</f>
@@ -3547,7 +3583,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="56">
         <f>F22</f>
@@ -3776,14 +3812,22 @@
       <c r="B29" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="C29" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="32">
+        <v>1</v>
+      </c>
+      <c r="E29" s="57">
+        <v>44939</v>
+      </c>
+      <c r="F29" s="57">
+        <v>44946</v>
+      </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="str">
+      <c r="H29" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -3842,20 +3886,25 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="48"/>
       <c r="B30" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="C30" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0</v>
+      </c>
+      <c r="E30" s="57">
+        <v>44946</v>
+      </c>
+      <c r="F30" s="57">
+        <v>44953</v>
+      </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
+      <c r="H30" s="17"/>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
@@ -3913,22 +3962,25 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A31" s="48" t="s">
-        <v>41</v>
-      </c>
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="48"/>
       <c r="B31" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
+      <c r="C31" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="57">
+        <v>44946</v>
+      </c>
+      <c r="F31" s="57">
+        <v>44953</v>
+      </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
+      <c r="H31" s="17"/>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
@@ -3986,19 +4038,27 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A32" s="48"/>
       <c r="B32" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
+      <c r="C32" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="57">
+        <v>44946</v>
+      </c>
+      <c r="F32" s="57">
+        <v>44967</v>
+      </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="17" t="str">
+      <c r="H32" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
@@ -4057,20 +4117,25 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="48"/>
       <c r="B33" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
+      <c r="C33" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="32">
+        <v>0</v>
+      </c>
+      <c r="E33" s="57">
+        <v>44946</v>
+      </c>
+      <c r="F33" s="57">
+        <v>44981</v>
+      </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
+      <c r="H33" s="17"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
@@ -4128,19 +4193,29 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="33" t="s">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
+      <c r="C34" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0</v>
+      </c>
+      <c r="E34" s="57">
+        <v>44946</v>
+      </c>
+      <c r="F34" s="57">
+        <v>44953</v>
+      </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="17" t="str">
+      <c r="H34" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
@@ -4199,24 +4274,25 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="48"/>
-      <c r="B35" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="58" t="s">
+      <c r="B35" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="58" t="s">
-        <v>53</v>
+      <c r="C35" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="32">
+        <v>0</v>
+      </c>
+      <c r="E35" s="57">
+        <v>44946</v>
+      </c>
+      <c r="F35" s="57">
+        <v>44953</v>
       </c>
       <c r="G35" s="17"/>
-      <c r="H35" s="17" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H35" s="17"/>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
@@ -4274,23 +4350,27 @@
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="48"/>
-      <c r="B36" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>53</v>
+      <c r="B36" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="32">
+        <v>0</v>
+      </c>
+      <c r="E36" s="57">
+        <v>44953</v>
+      </c>
+      <c r="F36" s="57">
+        <v>44974</v>
       </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="17" t="e">
+      <c r="H36" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>#VALUE!</v>
+        <v>22</v>
       </c>
       <c r="I36" s="44"/>
       <c r="J36" s="44"/>
@@ -4349,25 +4429,27 @@
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A37" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="58" t="s">
-        <v>53</v>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="48"/>
+      <c r="B37" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="32">
+        <v>0</v>
+      </c>
+      <c r="E37" s="57">
+        <v>44953</v>
+      </c>
+      <c r="F37" s="57">
+        <v>44967</v>
       </c>
       <c r="G37" s="17"/>
-      <c r="H37" s="17" t="e">
+      <c r="H37" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>#VALUE!</v>
+        <v>15</v>
       </c>
       <c r="I37" s="44"/>
       <c r="J37" s="44"/>
@@ -4426,121 +4508,726 @@
       <c r="BK37" s="44"/>
       <c r="BL37" s="44"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A38" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43" t="e">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A38" s="48"/>
+      <c r="B38" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="32">
+        <v>0</v>
+      </c>
+      <c r="E38" s="57">
+        <v>44967</v>
+      </c>
+      <c r="F38" s="57">
+        <v>44974</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="44"/>
+      <c r="AL38" s="44"/>
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="44"/>
+      <c r="AP38" s="44"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="44"/>
+      <c r="AS38" s="44"/>
+      <c r="AT38" s="44"/>
+      <c r="AU38" s="44"/>
+      <c r="AV38" s="44"/>
+      <c r="AW38" s="44"/>
+      <c r="AX38" s="44"/>
+      <c r="AY38" s="44"/>
+      <c r="AZ38" s="44"/>
+      <c r="BA38" s="44"/>
+      <c r="BB38" s="44"/>
+      <c r="BC38" s="44"/>
+      <c r="BD38" s="44"/>
+      <c r="BE38" s="44"/>
+      <c r="BF38" s="44"/>
+      <c r="BG38" s="44"/>
+      <c r="BH38" s="44"/>
+      <c r="BI38" s="44"/>
+      <c r="BJ38" s="44"/>
+      <c r="BK38" s="44"/>
+      <c r="BL38" s="44"/>
+    </row>
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="48"/>
+      <c r="B39" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="32">
+        <v>0</v>
+      </c>
+      <c r="E39" s="57">
+        <v>44974</v>
+      </c>
+      <c r="F39" s="57">
+        <v>44981</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
+      <c r="AP39" s="44"/>
+      <c r="AQ39" s="44"/>
+      <c r="AR39" s="44"/>
+      <c r="AS39" s="44"/>
+      <c r="AT39" s="44"/>
+      <c r="AU39" s="44"/>
+      <c r="AV39" s="44"/>
+      <c r="AW39" s="44"/>
+      <c r="AX39" s="44"/>
+      <c r="AY39" s="44"/>
+      <c r="AZ39" s="44"/>
+      <c r="BA39" s="44"/>
+      <c r="BB39" s="44"/>
+      <c r="BC39" s="44"/>
+      <c r="BD39" s="44"/>
+      <c r="BE39" s="44"/>
+      <c r="BF39" s="44"/>
+      <c r="BG39" s="44"/>
+      <c r="BH39" s="44"/>
+      <c r="BI39" s="44"/>
+      <c r="BJ39" s="44"/>
+      <c r="BK39" s="44"/>
+      <c r="BL39" s="44"/>
+    </row>
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A40" s="48"/>
+      <c r="B40" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="32">
+        <v>0</v>
+      </c>
+      <c r="E40" s="57">
+        <v>44974</v>
+      </c>
+      <c r="F40" s="57">
+        <v>44981</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="44"/>
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="44"/>
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="44"/>
+      <c r="AO40" s="44"/>
+      <c r="AP40" s="44"/>
+      <c r="AQ40" s="44"/>
+      <c r="AR40" s="44"/>
+      <c r="AS40" s="44"/>
+      <c r="AT40" s="44"/>
+      <c r="AU40" s="44"/>
+      <c r="AV40" s="44"/>
+      <c r="AW40" s="44"/>
+      <c r="AX40" s="44"/>
+      <c r="AY40" s="44"/>
+      <c r="AZ40" s="44"/>
+      <c r="BA40" s="44"/>
+      <c r="BB40" s="44"/>
+      <c r="BC40" s="44"/>
+      <c r="BD40" s="44"/>
+      <c r="BE40" s="44"/>
+      <c r="BF40" s="44"/>
+      <c r="BG40" s="44"/>
+      <c r="BH40" s="44"/>
+      <c r="BI40" s="44"/>
+      <c r="BJ40" s="44"/>
+      <c r="BK40" s="44"/>
+      <c r="BL40" s="44"/>
+    </row>
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A41" s="48"/>
+      <c r="B41" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="32">
+        <v>0</v>
+      </c>
+      <c r="E41" s="57">
+        <v>44981</v>
+      </c>
+      <c r="F41" s="57">
+        <v>44996</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="44"/>
+      <c r="AJ41" s="44"/>
+      <c r="AK41" s="44"/>
+      <c r="AL41" s="44"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="44"/>
+      <c r="AO41" s="44"/>
+      <c r="AP41" s="44"/>
+      <c r="AQ41" s="44"/>
+      <c r="AR41" s="44"/>
+      <c r="AS41" s="44"/>
+      <c r="AT41" s="44"/>
+      <c r="AU41" s="44"/>
+      <c r="AV41" s="44"/>
+      <c r="AW41" s="44"/>
+      <c r="AX41" s="44"/>
+      <c r="AY41" s="44"/>
+      <c r="AZ41" s="44"/>
+      <c r="BA41" s="44"/>
+      <c r="BB41" s="44"/>
+      <c r="BC41" s="44"/>
+      <c r="BD41" s="44"/>
+      <c r="BE41" s="44"/>
+      <c r="BF41" s="44"/>
+      <c r="BG41" s="44"/>
+      <c r="BH41" s="44"/>
+      <c r="BI41" s="44"/>
+      <c r="BJ41" s="44"/>
+      <c r="BK41" s="44"/>
+      <c r="BL41" s="44"/>
+    </row>
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A42" s="48"/>
+      <c r="B42" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="66"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="44"/>
+      <c r="AP42" s="44"/>
+      <c r="AQ42" s="44"/>
+      <c r="AR42" s="44"/>
+      <c r="AS42" s="44"/>
+      <c r="AT42" s="44"/>
+      <c r="AU42" s="44"/>
+      <c r="AV42" s="44"/>
+      <c r="AW42" s="44"/>
+      <c r="AX42" s="44"/>
+      <c r="AY42" s="44"/>
+      <c r="AZ42" s="44"/>
+      <c r="BA42" s="44"/>
+      <c r="BB42" s="44"/>
+      <c r="BC42" s="44"/>
+      <c r="BD42" s="44"/>
+      <c r="BE42" s="44"/>
+      <c r="BF42" s="44"/>
+      <c r="BG42" s="44"/>
+      <c r="BH42" s="44"/>
+      <c r="BI42" s="44"/>
+      <c r="BJ42" s="44"/>
+      <c r="BK42" s="44"/>
+      <c r="BL42" s="44"/>
+    </row>
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A43" s="48"/>
+      <c r="B43" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="67"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="46"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="46"/>
-      <c r="AH38" s="46"/>
-      <c r="AI38" s="46"/>
-      <c r="AJ38" s="46"/>
-      <c r="AK38" s="46"/>
-      <c r="AL38" s="46"/>
-      <c r="AM38" s="46"/>
-      <c r="AN38" s="46"/>
-      <c r="AO38" s="46"/>
-      <c r="AP38" s="46"/>
-      <c r="AQ38" s="46"/>
-      <c r="AR38" s="46"/>
-      <c r="AS38" s="46"/>
-      <c r="AT38" s="46"/>
-      <c r="AU38" s="46"/>
-      <c r="AV38" s="46"/>
-      <c r="AW38" s="46"/>
-      <c r="AX38" s="46"/>
-      <c r="AY38" s="46"/>
-      <c r="AZ38" s="46"/>
-      <c r="BA38" s="46"/>
-      <c r="BB38" s="46"/>
-      <c r="BC38" s="46"/>
-      <c r="BD38" s="46"/>
-      <c r="BE38" s="46"/>
-      <c r="BF38" s="46"/>
-      <c r="BG38" s="46"/>
-      <c r="BH38" s="46"/>
-      <c r="BI38" s="46"/>
-      <c r="BJ38" s="46"/>
-      <c r="BK38" s="46"/>
-      <c r="BL38" s="46"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="44"/>
+      <c r="AQ43" s="44"/>
+      <c r="AR43" s="44"/>
+      <c r="AS43" s="44"/>
+      <c r="AT43" s="44"/>
+      <c r="AU43" s="44"/>
+      <c r="AV43" s="44"/>
+      <c r="AW43" s="44"/>
+      <c r="AX43" s="44"/>
+      <c r="AY43" s="44"/>
+      <c r="AZ43" s="44"/>
+      <c r="BA43" s="44"/>
+      <c r="BB43" s="44"/>
+      <c r="BC43" s="44"/>
+      <c r="BD43" s="44"/>
+      <c r="BE43" s="44"/>
+      <c r="BF43" s="44"/>
+      <c r="BG43" s="44"/>
+      <c r="BH43" s="44"/>
+      <c r="BI43" s="44"/>
+      <c r="BJ43" s="44"/>
+      <c r="BK43" s="44"/>
+      <c r="BL43" s="44"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1">
-      <c r="B39" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="6"/>
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A44" s="48"/>
+      <c r="B44" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="67"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="44"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="44"/>
+      <c r="AP44" s="44"/>
+      <c r="AQ44" s="44"/>
+      <c r="AR44" s="44"/>
+      <c r="AS44" s="44"/>
+      <c r="AT44" s="44"/>
+      <c r="AU44" s="44"/>
+      <c r="AV44" s="44"/>
+      <c r="AW44" s="44"/>
+      <c r="AX44" s="44"/>
+      <c r="AY44" s="44"/>
+      <c r="AZ44" s="44"/>
+      <c r="BA44" s="44"/>
+      <c r="BB44" s="44"/>
+      <c r="BC44" s="44"/>
+      <c r="BD44" s="44"/>
+      <c r="BE44" s="44"/>
+      <c r="BF44" s="44"/>
+      <c r="BG44" s="44"/>
+      <c r="BH44" s="44"/>
+      <c r="BI44" s="44"/>
+      <c r="BJ44" s="44"/>
+      <c r="BK44" s="44"/>
+      <c r="BL44" s="44"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1">
-      <c r="B40" s="73"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A45" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="67"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="44"/>
+      <c r="AJ45" s="44"/>
+      <c r="AK45" s="44"/>
+      <c r="AL45" s="44"/>
+      <c r="AM45" s="44"/>
+      <c r="AN45" s="44"/>
+      <c r="AO45" s="44"/>
+      <c r="AP45" s="44"/>
+      <c r="AQ45" s="44"/>
+      <c r="AR45" s="44"/>
+      <c r="AS45" s="44"/>
+      <c r="AT45" s="44"/>
+      <c r="AU45" s="44"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
+      <c r="BB45" s="44"/>
+      <c r="BC45" s="44"/>
+      <c r="BD45" s="44"/>
+      <c r="BE45" s="44"/>
+      <c r="BF45" s="44"/>
+      <c r="BG45" s="44"/>
+      <c r="BH45" s="44"/>
+      <c r="BI45" s="44"/>
+      <c r="BJ45" s="44"/>
+      <c r="BK45" s="44"/>
+      <c r="BL45" s="44"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1">
-      <c r="B41" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A46" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="67"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="46"/>
+      <c r="AC46" s="46"/>
+      <c r="AD46" s="46"/>
+      <c r="AE46" s="46"/>
+      <c r="AF46" s="46"/>
+      <c r="AG46" s="46"/>
+      <c r="AH46" s="46"/>
+      <c r="AI46" s="46"/>
+      <c r="AJ46" s="46"/>
+      <c r="AK46" s="46"/>
+      <c r="AL46" s="46"/>
+      <c r="AM46" s="46"/>
+      <c r="AN46" s="46"/>
+      <c r="AO46" s="46"/>
+      <c r="AP46" s="46"/>
+      <c r="AQ46" s="46"/>
+      <c r="AR46" s="46"/>
+      <c r="AS46" s="46"/>
+      <c r="AT46" s="46"/>
+      <c r="AU46" s="46"/>
+      <c r="AV46" s="46"/>
+      <c r="AW46" s="46"/>
+      <c r="AX46" s="46"/>
+      <c r="AY46" s="46"/>
+      <c r="AZ46" s="46"/>
+      <c r="BA46" s="46"/>
+      <c r="BB46" s="46"/>
+      <c r="BC46" s="46"/>
+      <c r="BD46" s="46"/>
+      <c r="BE46" s="46"/>
+      <c r="BF46" s="46"/>
+      <c r="BG46" s="46"/>
+      <c r="BH46" s="46"/>
+      <c r="BI46" s="46"/>
+      <c r="BJ46" s="46"/>
+      <c r="BK46" s="46"/>
+      <c r="BL46" s="46"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1">
-      <c r="C43" s="14"/>
-      <c r="F43" s="50"/>
+    <row r="47" spans="1:64" ht="30" customHeight="1">
+      <c r="B47" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="67"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="6"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1">
-      <c r="C44" s="15"/>
+    <row r="48" spans="1:64" ht="30" customHeight="1">
+      <c r="B48" s="73"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+    </row>
+    <row r="49" spans="2:6" ht="30" customHeight="1">
+      <c r="B49" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+    </row>
+    <row r="51" spans="2:6" ht="30" customHeight="1">
+      <c r="C51" s="14"/>
+      <c r="F51" s="50"/>
+    </row>
+    <row r="52" spans="2:6" ht="30" customHeight="1">
+      <c r="C52" s="15"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B29:F41">
+    <sortCondition ref="E29:E41"/>
+  </sortState>
   <mergeCells count="11">
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4554,7 +5241,7 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D41">
+  <conditionalFormatting sqref="D7:D49">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4568,12 +5255,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL38">
+  <conditionalFormatting sqref="I5:BL46">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL38">
+  <conditionalFormatting sqref="I7:BL46">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4608,7 +5295,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D41</xm:sqref>
+          <xm:sqref>D7:D49</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
